--- a/enrollments.xlsx
+++ b/enrollments.xlsx
@@ -109,49 +109,49 @@
     <t>1NH21CS267</t>
   </si>
   <si>
+    <t>1NH21CS269</t>
+  </si>
+  <si>
+    <t>1NH21CS270</t>
+  </si>
+  <si>
+    <t>1NH21CS271</t>
+  </si>
+  <si>
+    <t>1NH21CS272</t>
+  </si>
+  <si>
+    <t>1NH21CS273</t>
+  </si>
+  <si>
+    <t>1NH21CS274</t>
+  </si>
+  <si>
+    <t>1NH21CS275</t>
+  </si>
+  <si>
+    <t>1NH21CS277</t>
+  </si>
+  <si>
+    <t>1NH21CS278</t>
+  </si>
+  <si>
+    <t>1NH21CS279</t>
+  </si>
+  <si>
+    <t>1NH21CS257</t>
+  </si>
+  <si>
+    <t>Social</t>
+  </si>
+  <si>
+    <t>1NH21CS260</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
     <t>1NH21CS268</t>
-  </si>
-  <si>
-    <t>1NH21CS269</t>
-  </si>
-  <si>
-    <t>1NH21CS270</t>
-  </si>
-  <si>
-    <t>1NH21CS271</t>
-  </si>
-  <si>
-    <t>1NH21CS272</t>
-  </si>
-  <si>
-    <t>1NH21CS273</t>
-  </si>
-  <si>
-    <t>1NH21CS274</t>
-  </si>
-  <si>
-    <t>1NH21CS275</t>
-  </si>
-  <si>
-    <t>1NH21CS277</t>
-  </si>
-  <si>
-    <t>1NH21CS278</t>
-  </si>
-  <si>
-    <t>1NH21CS279</t>
-  </si>
-  <si>
-    <t>1NH21CS257</t>
-  </si>
-  <si>
-    <t>Social</t>
-  </si>
-  <si>
-    <t>1NH21CS260</t>
-  </si>
-  <si>
-    <t>Science</t>
   </si>
 </sst>
 </file>
@@ -730,7 +730,7 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -741,7 +741,7 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -752,7 +752,7 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -763,7 +763,7 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -774,7 +774,7 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -785,7 +785,7 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -796,7 +796,7 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -807,7 +807,7 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -818,7 +818,7 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -829,7 +829,7 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -840,32 +840,32 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
